--- a/Plannification.xlsx
+++ b/Plannification.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\OmniPong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yannis\Desktop\OmniPong\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1049F59-5EBE-49F0-9AD6-2C29788B61EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Documentation</t>
   </si>
@@ -63,13 +64,28 @@
   </si>
   <si>
     <t>Jeune Genevois</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Rédition</t>
+  </si>
+  <si>
+    <t>Rapport inter.</t>
+  </si>
+  <si>
+    <t>Rapport final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,11 +98,6 @@
       <name val="Geneva"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
       <color theme="0"/>
@@ -94,8 +105,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,13 +147,149 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -128,23 +297,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,268 +619,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="B1" s="3">
+    <row r="2" spans="2:16" ht="15" customHeight="1"/>
+    <row r="14" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="15" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B15" s="7"/>
+      <c r="C15" s="13">
         <v>43706</v>
       </c>
-      <c r="C1" s="4">
+      <c r="D15" s="14">
         <v>43713</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E15" s="15">
         <v>43720</v>
       </c>
-      <c r="E1" s="4">
+      <c r="F15" s="14">
         <v>43727</v>
       </c>
-      <c r="F1" s="3">
+      <c r="G15" s="15">
         <v>43734</v>
       </c>
-      <c r="G1" s="4">
+      <c r="H15" s="14">
         <v>43741</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I15" s="15">
         <v>43748</v>
       </c>
-      <c r="I1" s="4">
+      <c r="J15" s="14">
         <v>43755</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K15" s="15">
         <v>43762</v>
       </c>
-      <c r="K1" s="4">
+      <c r="L15" s="14">
         <v>43769</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M15" s="15">
         <v>43776</v>
       </c>
-      <c r="M1" s="4">
+      <c r="N15" s="14">
         <v>43783</v>
       </c>
-      <c r="N1" s="3">
+      <c r="O15" s="15">
         <v>43790</v>
       </c>
-      <c r="O1" s="4">
+      <c r="P15" s="16">
         <v>43797</v>
       </c>
-      <c r="P1" s="4">
-        <v>43798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="5" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="5" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="5" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B28" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="1"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D16:D28"/>
+    <mergeCell ref="P16:P28"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="O16:O17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
